--- a/ReactOcean/React_Practice_Tracker.xlsx
+++ b/ReactOcean/React_Practice_Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Javascript\CodeWithJavaScript\ReactOcean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDDC5E2-6507-4514-BD3F-C4CF4A3D8093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B000F95-9E6C-4F24-8CE8-767B191A0EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,7 +997,7 @@
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1021,7 +1021,7 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
@@ -1031,7 +1031,7 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
@@ -1081,7 +1081,7 @@
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2"/>
